--- a/data/trans_orig/P44-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>23339</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14945</v>
+        <v>15585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33570</v>
+        <v>34861</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06742528251385135</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04317544077228608</v>
+        <v>0.04502424253734163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09698312518528331</v>
+        <v>0.1007122178567089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -764,19 +764,19 @@
         <v>35540</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24744</v>
+        <v>25388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49123</v>
+        <v>48807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07950999703902013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05535780839068551</v>
+        <v>0.05679740312052484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1098965674920737</v>
+        <v>0.1091902346617622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -785,19 +785,19 @@
         <v>58879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46072</v>
+        <v>45641</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76262</v>
+        <v>77402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07423590347547201</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05808837779209178</v>
+        <v>0.0575452152574257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09615212578135789</v>
+        <v>0.09758898453845762</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>322808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312577</v>
+        <v>311286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>331202</v>
+        <v>330562</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9325747174861486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9030168748147167</v>
+        <v>0.8992877821432911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9568245592277139</v>
+        <v>0.9549757574626584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>378</v>
@@ -835,19 +835,19 @@
         <v>411451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>397868</v>
+        <v>398184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422247</v>
+        <v>421603</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9204900029609798</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8901034325079262</v>
+        <v>0.8908097653382375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9446421916093144</v>
+        <v>0.9432025968794752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>667</v>
@@ -856,19 +856,19 @@
         <v>734259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716876</v>
+        <v>715736</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>747066</v>
+        <v>747497</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.925764096524528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9038478742186423</v>
+        <v>0.9024110154615425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9419116222079084</v>
+        <v>0.9424547847425743</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>36015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24534</v>
+        <v>24567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51361</v>
+        <v>52402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1092966405840155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07445512212236745</v>
+        <v>0.07455256138885458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.15586568578596</v>
+        <v>0.1590251594794251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -981,19 +981,19 @@
         <v>31652</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21455</v>
+        <v>21179</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45354</v>
+        <v>44129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07097851869079472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04811282926957736</v>
+        <v>0.04749298873154874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1017042871462284</v>
+        <v>0.09895845886121409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1002,19 +1002,19 @@
         <v>67667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53019</v>
+        <v>49842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86731</v>
+        <v>85584</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08726132230840369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06837163785916663</v>
+        <v>0.06427476687892618</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1118446740213836</v>
+        <v>0.1103655562038519</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>293505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278159</v>
+        <v>277118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304986</v>
+        <v>304953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8907033594159844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8441343142140401</v>
+        <v>0.8409748405205749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9255448778776325</v>
+        <v>0.9254474386111454</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>386</v>
@@ -1052,19 +1052,19 @@
         <v>414284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>400582</v>
+        <v>401807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>424481</v>
+        <v>424757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9290214813092053</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8982957128537715</v>
+        <v>0.901041541138787</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9518871707304226</v>
+        <v>0.9525070112684513</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>658</v>
@@ -1073,19 +1073,19 @@
         <v>707789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688725</v>
+        <v>689872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>722437</v>
+        <v>725614</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9127386776915963</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8881553259786162</v>
+        <v>0.889634443796148</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9316283621408333</v>
+        <v>0.9357252331210736</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>30090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20415</v>
+        <v>19844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41704</v>
+        <v>43407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08793115289527692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05965887185609604</v>
+        <v>0.05799027972665407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1218714328474445</v>
+        <v>0.126846358638686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1198,19 +1198,19 @@
         <v>23783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14719</v>
+        <v>14959</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36293</v>
+        <v>35835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06291401863553947</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03893628609525408</v>
+        <v>0.03957129510366938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09600731849656367</v>
+        <v>0.09479578132185695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1219,19 +1219,19 @@
         <v>53873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40556</v>
+        <v>40682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70240</v>
+        <v>71469</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07480041841286222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05631047989991735</v>
+        <v>0.05648493562297213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09752596650105673</v>
+        <v>0.09923166887252145</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>312109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300495</v>
+        <v>298792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321784</v>
+        <v>322355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9120688471047231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8781285671525555</v>
+        <v>0.873153641361314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.940341128143904</v>
+        <v>0.9420097202733458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -1269,19 +1269,19 @@
         <v>354239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>341729</v>
+        <v>342187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>363303</v>
+        <v>363063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9370859813644605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9039926815034361</v>
+        <v>0.9052042186781433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9610637139047452</v>
+        <v>0.9604287048963309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>610</v>
@@ -1290,19 +1290,19 @@
         <v>666348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649981</v>
+        <v>648752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>679665</v>
+        <v>679539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9251995815871378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9024740334989433</v>
+        <v>0.9007683311274791</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9436895201000827</v>
+        <v>0.9435150643770279</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>24312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14883</v>
+        <v>15664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35855</v>
+        <v>36074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1461787271250358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08948511263310116</v>
+        <v>0.09418267600868234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2155826594427356</v>
+        <v>0.2168979650982301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1415,19 +1415,19 @@
         <v>19086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11820</v>
+        <v>11270</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30830</v>
+        <v>29234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1021504853031845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06325891332249788</v>
+        <v>0.06031712787819699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1650055751652747</v>
+        <v>0.1564627543069626</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1436,19 +1436,19 @@
         <v>43398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31252</v>
+        <v>30967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61781</v>
+        <v>59507</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1228851107703452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08849120222920841</v>
+        <v>0.08768571200701096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1749375351280702</v>
+        <v>0.1684975573206069</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>142006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130463</v>
+        <v>130244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151435</v>
+        <v>150654</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8538212728749642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7844173405572643</v>
+        <v>0.7831020349017687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9105148873668989</v>
+        <v>0.9058173239913176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1486,19 +1486,19 @@
         <v>167758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156014</v>
+        <v>157610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175024</v>
+        <v>175574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8978495146968154</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8349944248347254</v>
+        <v>0.8435372456930372</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9367410866775022</v>
+        <v>0.9396828721218028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -1507,19 +1507,19 @@
         <v>309763</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>291380</v>
+        <v>293654</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>321909</v>
+        <v>322194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8771148892296547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8250624648719298</v>
+        <v>0.8315024426793934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9115087977707915</v>
+        <v>0.9123142879929891</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>113756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92660</v>
+        <v>95578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136540</v>
+        <v>139130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09606327067072658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07824798746484291</v>
+        <v>0.08071190130080352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1153030193933368</v>
+        <v>0.1174899775170536</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -1632,19 +1632,19 @@
         <v>110061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89082</v>
+        <v>90859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133271</v>
+        <v>130069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07549852130980061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06110741322075838</v>
+        <v>0.06232635191776475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09141973906514909</v>
+        <v>0.08922293205416143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -1653,19 +1653,19 @@
         <v>223818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196370</v>
+        <v>190461</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>255418</v>
+        <v>255656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08471602754831199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07432706169627647</v>
+        <v>0.07209040794649731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09667703410667113</v>
+        <v>0.09676710364924899</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1070427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1047643</v>
+        <v>1045053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1091523</v>
+        <v>1088605</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9039367293292734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8846969806066632</v>
+        <v>0.8825100224829464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.921752012535157</v>
+        <v>0.9192880986991964</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1240</v>
@@ -1703,19 +1703,19 @@
         <v>1347732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1324522</v>
+        <v>1327724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1368711</v>
+        <v>1366934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9245014786901994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9085802609348509</v>
+        <v>0.9107770679458386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9388925867792416</v>
+        <v>0.9376736480822351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2209</v>
@@ -1724,19 +1724,19 @@
         <v>2418158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2386558</v>
+        <v>2386320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2445606</v>
+        <v>2451515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.915283972451688</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9033229658933287</v>
+        <v>0.9032328963507523</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9256729383037234</v>
+        <v>0.9279095920535029</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>44175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32230</v>
+        <v>31971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59208</v>
+        <v>57877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09537381366100145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06958416692423622</v>
+        <v>0.06902458932389387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1278297489786766</v>
+        <v>0.1249552172302628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2089,19 +2089,19 @@
         <v>34679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24428</v>
+        <v>23067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49658</v>
+        <v>47649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0589532155168907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04152717214902682</v>
+        <v>0.03921305454261717</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08441703957484056</v>
+        <v>0.08100128598818161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -2110,19 +2110,19 @@
         <v>78854</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62210</v>
+        <v>62950</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96417</v>
+        <v>97363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07499729924703211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05916707966287944</v>
+        <v>0.05987072336288075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09170096330474789</v>
+        <v>0.09260094481741005</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>419003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403970</v>
+        <v>405301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430948</v>
+        <v>431207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9046261863389985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8721702510213234</v>
+        <v>0.8750447827697373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9304158330757638</v>
+        <v>0.9309754106761062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>485</v>
@@ -2160,19 +2160,19 @@
         <v>553572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>538593</v>
+        <v>540602</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>563823</v>
+        <v>565184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9410467844831093</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9155829604251602</v>
+        <v>0.9189987140118184</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9584728278509732</v>
+        <v>0.9607869454573829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>888</v>
@@ -2181,19 +2181,19 @@
         <v>972574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955011</v>
+        <v>954065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>989218</v>
+        <v>988478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9250027007529679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9082990366952521</v>
+        <v>0.90739905518259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9408329203371191</v>
+        <v>0.9401292766371192</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>41053</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29998</v>
+        <v>30058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53787</v>
+        <v>55065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1133485777052729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0828258755250717</v>
+        <v>0.08299123968759674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1485067555580321</v>
+        <v>0.1520334070430482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2306,19 +2306,19 @@
         <v>34320</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22201</v>
+        <v>23757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46904</v>
+        <v>47679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0765684736743673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04953018786469463</v>
+        <v>0.05300324304639206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1046444363477434</v>
+        <v>0.1063740268736664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2327,19 +2327,19 @@
         <v>75373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59561</v>
+        <v>58898</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92989</v>
+        <v>93101</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09300616477874402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07349520387238889</v>
+        <v>0.07267727614299349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1147437863003961</v>
+        <v>0.1148814027127012</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>321134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308400</v>
+        <v>307122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332189</v>
+        <v>332129</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.886651422294727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8514932444419678</v>
+        <v>0.8479665929569518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9171741244749284</v>
+        <v>0.9170087603124032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -2377,19 +2377,19 @@
         <v>413903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401319</v>
+        <v>400544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>426022</v>
+        <v>424466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9234315263256327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8953555636522565</v>
+        <v>0.8936259731263336</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9504698121353053</v>
+        <v>0.9469967569536083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -2398,19 +2398,19 @@
         <v>735036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>717420</v>
+        <v>717308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>750848</v>
+        <v>751511</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.906993835221256</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8852562136996035</v>
+        <v>0.8851185972872981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9265047961276112</v>
+        <v>0.9273227238570063</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>40078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29036</v>
+        <v>29383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51796</v>
+        <v>53279</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1167508657503302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08458358086100295</v>
+        <v>0.08559651993341749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1508874372620705</v>
+        <v>0.1552067397645289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -2523,19 +2523,19 @@
         <v>30756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21472</v>
+        <v>21198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44794</v>
+        <v>44207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08694660972460792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06070217320771173</v>
+        <v>0.05992792299759107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1266327295573369</v>
+        <v>0.1249742600079796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -2544,19 +2544,19 @@
         <v>70833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56842</v>
+        <v>54903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87916</v>
+        <v>86455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1016252401766556</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08155128330780578</v>
+        <v>0.07876916433156812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1261333476703867</v>
+        <v>0.1240372400184638</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>303198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291480</v>
+        <v>289997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314240</v>
+        <v>313893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8832491342496698</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8491125627379296</v>
+        <v>0.8447932602354711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9154164191389971</v>
+        <v>0.9144034800665826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -2594,19 +2594,19 @@
         <v>322974</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308936</v>
+        <v>309523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332258</v>
+        <v>332532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9130533902753921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8733672704426633</v>
+        <v>0.8750257399920205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9392978267922883</v>
+        <v>0.940072077002409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -2615,19 +2615,19 @@
         <v>626173</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>609090</v>
+        <v>610551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640164</v>
+        <v>642103</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8983747598233445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8738666523296134</v>
+        <v>0.8759627599815362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.918448716692194</v>
+        <v>0.9212308356684318</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>37836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26629</v>
+        <v>27282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51278</v>
+        <v>51136</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1765154931286699</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1242294191703493</v>
+        <v>0.1272793387367936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2392253507579361</v>
+        <v>0.2385629494705066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -2740,19 +2740,19 @@
         <v>19545</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11662</v>
+        <v>11978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31009</v>
+        <v>30618</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09911222208177659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0591377283175671</v>
+        <v>0.06073934317640816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1572470649526591</v>
+        <v>0.1552643390260487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -2761,19 +2761,19 @@
         <v>57381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43688</v>
+        <v>42471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73608</v>
+        <v>73124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1394266358969265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1061536399066945</v>
+        <v>0.1031974675769238</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1788549291044161</v>
+        <v>0.1776806969546398</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>176514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163072</v>
+        <v>163214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187721</v>
+        <v>187068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8234845068713301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7607746492420642</v>
+        <v>0.7614370505294936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8757705808296509</v>
+        <v>0.8727206612632065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>151</v>
@@ -2811,19 +2811,19 @@
         <v>177655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166191</v>
+        <v>166582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>185538</v>
+        <v>185222</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9008877779182234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8427529350473409</v>
+        <v>0.8447356609739513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9408622716824329</v>
+        <v>0.9392606568235918</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>319</v>
@@ -2832,19 +2832,19 @@
         <v>354169</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>337942</v>
+        <v>338426</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367862</v>
+        <v>369079</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8605733641030735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8211450708955839</v>
+        <v>0.8223193030453601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8938463600933054</v>
+        <v>0.8968025324230762</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>163142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139928</v>
+        <v>140487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189206</v>
+        <v>189935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1179633911868575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1011778813838763</v>
+        <v>0.101581832065667</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1368091986883721</v>
+        <v>0.1373361680247782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -2957,19 +2957,19 @@
         <v>119300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97714</v>
+        <v>98195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141606</v>
+        <v>143847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07515389282949086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.061555993492992</v>
+        <v>0.06185863421322328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08920581031864806</v>
+        <v>0.09061750626194598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>260</v>
@@ -2978,19 +2978,19 @@
         <v>282442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250980</v>
+        <v>249735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319465</v>
+        <v>316835</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09508563690785926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08449394410748953</v>
+        <v>0.08407458272311352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1075496403767357</v>
+        <v>0.1066642890514094</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1219849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1193785</v>
+        <v>1193056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1243063</v>
+        <v>1242504</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8820366088131425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8631908013116278</v>
+        <v>0.8626638319752218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8988221186161237</v>
+        <v>0.8984181679343329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1277</v>
@@ -3028,19 +3028,19 @@
         <v>1468103</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1445797</v>
+        <v>1443556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1489689</v>
+        <v>1489208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9248461071705091</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9107941896813523</v>
+        <v>0.9093824937380542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9384440065070081</v>
+        <v>0.9381413657867768</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2455</v>
@@ -3049,19 +3049,19 @@
         <v>2687952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2650929</v>
+        <v>2653559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2719414</v>
+        <v>2720659</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9049143630921407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8924503596232644</v>
+        <v>0.8933357109485907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9155060558925106</v>
+        <v>0.9159254172768867</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>61823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49732</v>
+        <v>50237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75012</v>
+        <v>74871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.278167020519601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2237666779374945</v>
+        <v>0.2260368128939715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3375123056045051</v>
+        <v>0.3368766494940134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -3414,19 +3414,19 @@
         <v>89655</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77400</v>
+        <v>78445</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101905</v>
+        <v>102616</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3003808317466569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2593225615667992</v>
+        <v>0.262822074249812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3414231050703429</v>
+        <v>0.3438044369994591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -3435,19 +3435,19 @@
         <v>151478</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133753</v>
+        <v>134330</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169088</v>
+        <v>170194</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2908997200427477</v>
+        <v>0.2908997200427478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2568616505892989</v>
+        <v>0.2579697218801982</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3247193147281667</v>
+        <v>0.3268421047782157</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>160427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147238</v>
+        <v>147379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172518</v>
+        <v>172013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.721832979480399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.662487694395495</v>
+        <v>0.6631233505059866</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7762333220625055</v>
+        <v>0.7739631871060283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>357</v>
@@ -3485,19 +3485,19 @@
         <v>208816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196566</v>
+        <v>195855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221071</v>
+        <v>220026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6996191682533429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6585768949296569</v>
+        <v>0.656195563000541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7406774384332003</v>
+        <v>0.737177925750188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -3506,19 +3506,19 @@
         <v>369243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351633</v>
+        <v>350527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>386968</v>
+        <v>386391</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7091002799572522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6752806852718332</v>
+        <v>0.6731578952217842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.743138349410701</v>
+        <v>0.7420302781198018</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>147199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128991</v>
+        <v>129690</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164614</v>
+        <v>165456</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3490899227237845</v>
+        <v>0.3490899227237846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3059090386052944</v>
+        <v>0.3075678519846032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3903904743078152</v>
+        <v>0.3923873831717666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -3631,19 +3631,19 @@
         <v>151451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136191</v>
+        <v>136699</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168808</v>
+        <v>167730</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2762430104712212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2484108332341974</v>
+        <v>0.2493361586641213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3079022095524808</v>
+        <v>0.3059366267984072</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>448</v>
@@ -3652,19 +3652,19 @@
         <v>298649</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275868</v>
+        <v>274142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323311</v>
+        <v>323325</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3079127368847217</v>
+        <v>0.3079127368847218</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2844247599484818</v>
+        <v>0.282645458753092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.333339644955621</v>
+        <v>0.3333541806915909</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>274465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257050</v>
+        <v>256208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>292673</v>
+        <v>291974</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6509100772762153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6096095256921845</v>
+        <v>0.6076126168282334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6940909613947056</v>
+        <v>0.6924321480153968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>694</v>
@@ -3702,19 +3702,19 @@
         <v>396800</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>379443</v>
+        <v>380521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>412060</v>
+        <v>411552</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7237569895287788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6920977904475192</v>
+        <v>0.6940633732015929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7515891667658027</v>
+        <v>0.7506638413358788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1027</v>
@@ -3723,19 +3723,19 @@
         <v>671266</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>646604</v>
+        <v>646590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>694047</v>
+        <v>695773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6920872631152781</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6666603550443789</v>
+        <v>0.666645819308409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7155752400515183</v>
+        <v>0.7173545412469079</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>180186</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160699</v>
+        <v>161373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199701</v>
+        <v>201646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3674836094200766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.327741645663475</v>
+        <v>0.3291162302310607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.40728518444061</v>
+        <v>0.4112519273392531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -3848,19 +3848,19 @@
         <v>140837</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125983</v>
+        <v>126541</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155993</v>
+        <v>155204</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.306230469560954</v>
+        <v>0.3062304695609541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.273934037120214</v>
+        <v>0.2751458725389028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3391863407977594</v>
+        <v>0.3374703822483546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>473</v>
@@ -3869,19 +3869,19 @@
         <v>321022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298205</v>
+        <v>296460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345718</v>
+        <v>346045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3378374491273488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3138252020832396</v>
+        <v>0.3119885126451019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3638272452003669</v>
+        <v>0.3641706473859079</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>310137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>290622</v>
+        <v>288677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329624</v>
+        <v>328950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6325163905799234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5927148155593901</v>
+        <v>0.5887480726607469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6722583543365251</v>
+        <v>0.6708837697689393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>570</v>
@@ -3919,19 +3919,19 @@
         <v>319067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303911</v>
+        <v>304700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333921</v>
+        <v>333363</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6937695304390461</v>
+        <v>0.693769530439046</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6608136592022406</v>
+        <v>0.6625296177516453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.726065962879786</v>
+        <v>0.7248541274610972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>944</v>
@@ -3940,19 +3940,19 @@
         <v>629205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604509</v>
+        <v>604182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652022</v>
+        <v>653767</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6621625508726511</v>
+        <v>0.6621625508726512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6361727547996332</v>
+        <v>0.6358293526140921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6861747979167607</v>
+        <v>0.6880114873548984</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>182513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>164639</v>
+        <v>163317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202200</v>
+        <v>200495</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4156530598831078</v>
+        <v>0.4156530598831079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3749460400035824</v>
+        <v>0.3719354907720172</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4604870785923802</v>
+        <v>0.4566035603627983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -4065,19 +4065,19 @@
         <v>144000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129846</v>
+        <v>128604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162459</v>
+        <v>157231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3383646910786448</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3051048441406646</v>
+        <v>0.3021881810120494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3817370709787991</v>
+        <v>0.3694540375354289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>458</v>
@@ -4086,19 +4086,19 @@
         <v>326513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>302929</v>
+        <v>305401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349845</v>
+        <v>352515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3776132369007567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3503376933894514</v>
+        <v>0.3531963520191366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4045959134545692</v>
+        <v>0.4076836129745061</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>256587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>236900</v>
+        <v>238605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274461</v>
+        <v>275783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5843469401168921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5395129214076197</v>
+        <v>0.5433964396372017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6250539599964174</v>
+        <v>0.628064509227983</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>516</v>
@@ -4136,19 +4136,19 @@
         <v>281577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>263118</v>
+        <v>268346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295731</v>
+        <v>296973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6616353089213552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6182629290212007</v>
+        <v>0.6305459624645708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6948951558593351</v>
+        <v>0.6978118189879504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>841</v>
@@ -4157,19 +4157,19 @@
         <v>538164</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514832</v>
+        <v>512162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561748</v>
+        <v>559276</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6223867630992432</v>
+        <v>0.6223867630992435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5954040865454308</v>
+        <v>0.5923163870254942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6496623066105484</v>
+        <v>0.6468036479808635</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>571720</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>536320</v>
+        <v>538236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>606188</v>
+        <v>604534</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3633806349814138</v>
+        <v>0.3633806349814139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3408805743135361</v>
+        <v>0.3420987625821676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3852885877007129</v>
+        <v>0.3842369752142419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>893</v>
@@ -4282,19 +4282,19 @@
         <v>525942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>498456</v>
+        <v>497668</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>555934</v>
+        <v>559032</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3036262613836868</v>
+        <v>0.3036262613836867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2877582673392568</v>
+        <v>0.2873032248311126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3209402051057905</v>
+        <v>0.3227286640145417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1604</v>
@@ -4303,19 +4303,19 @@
         <v>1097662</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1049615</v>
+        <v>1052984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1143434</v>
+        <v>1143021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.33206752817677</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3175322126359142</v>
+        <v>0.3185513447090783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3459143770087689</v>
+        <v>0.3457895481258098</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>1001616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>967148</v>
+        <v>968802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1037016</v>
+        <v>1035100</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.636619365018586</v>
+        <v>0.6366193650185862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6147114122992871</v>
+        <v>0.6157630247857582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6591194256864639</v>
+        <v>0.6579012374178324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2137</v>
@@ -4353,19 +4353,19 @@
         <v>1206261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1176269</v>
+        <v>1173171</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1233747</v>
+        <v>1234535</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6963737386163134</v>
+        <v>0.6963737386163132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6790597948942094</v>
+        <v>0.6772713359854582</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7122417326607431</v>
+        <v>0.7126967751688874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3344</v>
@@ -4374,19 +4374,19 @@
         <v>2207878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2162106</v>
+        <v>2162519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2255925</v>
+        <v>2252556</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.66793247182323</v>
+        <v>0.6679324718232299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6540856229912313</v>
+        <v>0.6542104518741902</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6824677873640859</v>
+        <v>0.6814486552909218</v>
       </c>
     </row>
     <row r="18">
